--- a/backend/web/example/refund.xlsx
+++ b/backend/web/example/refund.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Contact code</t>
   </si>
@@ -56,13 +56,10 @@
     <t>DEMO</t>
   </si>
   <si>
-    <t>DMEO</t>
-  </si>
-  <si>
-    <t>SKU03912</t>
-  </si>
-  <si>
-    <t>SKI0103123</t>
+    <t>D968124</t>
+  </si>
+  <si>
+    <t>BM00019</t>
   </si>
 </sst>
 </file>
@@ -70,7 +67,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -194,12 +191,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +480,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,10 +535,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
